--- a/result_excel/Space_5_DLinear_custom_ftS_sl60_ll30_pl30_dm512_nh8_el2_dl1_df2048_fc1_ebtimeF_dtTrue_Exp_0results.xlsx
+++ b/result_excel/Space_5_DLinear_custom_ftS_sl60_ll30_pl30_dm512_nh8_el2_dl1_df2048_fc1_ebtimeF_dtTrue_Exp_0results.xlsx
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>125.5214080810547</v>
+        <v>261.0466613769531</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>126.3361434936523</v>
+        <v>266.2489624023438</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>126.7831573486328</v>
+        <v>273.0105895996094</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>126.2815780639648</v>
+        <v>271.1855163574219</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>126.1144943237305</v>
+        <v>255.4785003662109</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>126.0149459838867</v>
+        <v>268.4468688964844</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>127.5269775390625</v>
+        <v>264.2890930175781</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>128.6103668212891</v>
+        <v>262.0690612792969</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>129.9062194824219</v>
+        <v>272.3366088867188</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>129.9548034667969</v>
+        <v>262.0994567871094</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>130.8851928710938</v>
+        <v>263.8270874023438</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>131.8966674804688</v>
+        <v>259.5837707519531</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>131.6936798095703</v>
+        <v>259.8832092285156</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>131.7144317626953</v>
+        <v>254.8768005371094</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>132.4086761474609</v>
+        <v>257.8612060546875</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>132.1477661132812</v>
+        <v>267.9934997558594</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>132.1654357910156</v>
+        <v>263.8507385253906</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>130.9653930664062</v>
+        <v>263.0481567382812</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>129.9584197998047</v>
+        <v>253.9147491455078</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>128.4049835205078</v>
+        <v>254.6460571289062</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>127.2147445678711</v>
+        <v>241.1624145507812</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>126.9662857055664</v>
+        <v>241.1155853271484</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>126.5832366943359</v>
+        <v>259.8577270507812</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>125.0227813720703</v>
+        <v>240.9834136962891</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>124.016731262207</v>
+        <v>252.3605194091797</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>124.9346237182617</v>
+        <v>257.1934204101562</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>125.4134140014648</v>
+        <v>242.8733062744141</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>126.2674255371094</v>
+        <v>257.3662109375</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>127.5654373168945</v>
+        <v>256.6921997070312</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>128.7618103027344</v>
+        <v>255.9210052490234</v>
       </c>
     </row>
   </sheetData>
